--- a/web_ces/indicadores/SFE-EIP2_out.xlsx
+++ b/web_ces/indicadores/SFE-EIP2_out.xlsx
@@ -13671,22 +13671,22 @@
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5dd4176-d247-4204-85b8-921214f3ccea">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="359b39ce-e1f9-4933-8424-33b611e6fdcd" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3109420-2FCB-4520-B52F-3EB364958DB2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01AEA3F8-ACFD-4195-8DD0-A08604C46536}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEA72F68-0399-41FE-BE50-44E75634F1A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D2A2502-23CE-4713-B17A-C303FBBA3012}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E6132DF-1760-44BB-9A15-DCE3E369F15C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E86F877C-B58B-4491-B2A0-3874AF65CEF8}"/>
 </file>